--- a/FancyDisplay/Assets/StreamingAssets/data.xlsx
+++ b/FancyDisplay/Assets/StreamingAssets/data.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+  <si>
+    <t>团队</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -25,7 +29,7 @@
     <t>毕业院校</t>
   </si>
   <si>
-    <t>简介</t>
+    <t>博士团队</t>
   </si>
   <si>
     <t>韩利雄</t>
@@ -37,7 +41,7 @@
     <t>中国地质大学</t>
   </si>
   <si>
-    <t>重庆国际复合材料</t>
+    <t>玻璃研发团队</t>
   </si>
 </sst>
 </file>
@@ -50,14 +54,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,48 +510,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,97 +564,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,11 +979,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1022,4 +1020,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/FancyDisplay/Assets/StreamingAssets/data.xlsx
+++ b/FancyDisplay/Assets/StreamingAssets/data.xlsx
@@ -7,18 +7,15 @@
     <workbookView windowWidth="14745" windowHeight="10080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="博士团队" sheetId="1" r:id="rId1"/>
+    <sheet name="玻璃研发团队" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
-  <si>
-    <t>团队</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>姓名</t>
   </si>
@@ -29,9 +26,6 @@
     <t>毕业院校</t>
   </si>
   <si>
-    <t>博士团队</t>
-  </si>
-  <si>
     <t>韩利雄</t>
   </si>
   <si>
@@ -39,9 +33,6 @@
   </si>
   <si>
     <t>中国地质大学</t>
-  </si>
-  <si>
-    <t>玻璃研发团队</t>
   </si>
 </sst>
 </file>
@@ -976,19 +967,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,22 +990,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1025,18 +1011,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,22 +1033,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
